--- a/Phase - 1 - Modeling and Stage Load/references/NYC_MV_Collisions_Staging_Technical_Mapping_Specification_Documentation.xlsx
+++ b/Phase - 1 - Modeling and Stage Load/references/NYC_MV_Collisions_Staging_Technical_Mapping_Specification_Documentation.xlsx
@@ -1,35 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ExD\MSIS\DADABI\Assignments\New York City (NYC) Motor Vehicles (MV) Collisions - Final Project\Phase - 1 - Modeling and Stage Load\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ExD\MSIS\DADABI\Assignments\New York City (NYC) Motor Vehicles (MV) Collisions - Final Project\Phase - 1 - Modeling and Stage Load\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CEA1579-7E3B-4707-83F8-823A27ED498A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1680172B-5FDA-4E4D-855B-CD3DE7E1B8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23475" yWindow="3150" windowWidth="21600" windowHeight="11295" tabRatio="878" activeTab="5" xr2:uid="{F8EAADA7-8849-48C0-A2B7-E82BBE697EAE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="878" activeTab="2" xr2:uid="{F8EAADA7-8849-48C0-A2B7-E82BBE697EAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tech" sheetId="1" r:id="rId1"/>
     <sheet name="SOR" sheetId="12" r:id="rId2"/>
     <sheet name="Staging" sheetId="2" r:id="rId3"/>
-    <sheet name="Dimensions" sheetId="10" r:id="rId4"/>
-    <sheet name="Facts" sheetId="11" r:id="rId5"/>
-    <sheet name="Soure_To_Target_Mapping" sheetId="3" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="9" state="hidden" r:id="rId7"/>
-    <sheet name="Config" sheetId="8" state="hidden" r:id="rId8"/>
-    <sheet name="BusinessRequirements" sheetId="7" state="hidden" r:id="rId9"/>
+    <sheet name="Soure_To_Target_Mapping" sheetId="3" state="hidden" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="9" state="hidden" r:id="rId5"/>
+    <sheet name="Config" sheetId="8" state="hidden" r:id="rId6"/>
+    <sheet name="BusinessRequirements" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SOR!$A$2:$E$77</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Soure_To_Target_Mapping!$A$1:$R$79</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Staging!$A$1:$F$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Soure_To_Target_Mapping!$A$1:$R$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Staging!$A$1:$F$74</definedName>
     <definedName name="category">[1]Sheet2!$B$14:$B$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">SOR!$B$1:$E$55</definedName>
   </definedNames>
@@ -54,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="313">
   <si>
     <t>Database</t>
   </si>
@@ -1142,12 +1140,6 @@
     <t>FK to FCT_Collision</t>
   </si>
   <si>
-    <t>Dimensions Name</t>
-  </si>
-  <si>
-    <t>Facts Name</t>
-  </si>
-  <si>
     <t>PK/FK (For Stage SOR)</t>
   </si>
   <si>
@@ -1346,6 +1338,21 @@
   </si>
   <si>
     <t>VICTIM_SEX</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>DI_PID</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>DI_Create_Date</t>
   </si>
 </sst>
 </file>
@@ -1418,7 +1425,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1472,7 +1478,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1512,12 +1518,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF66"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1745,7 +1745,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1848,11 +1848,8 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2360,7 +2357,7 @@
   <sheetViews>
     <sheetView zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2417,8 +2414,8 @@
         <v>20</v>
       </c>
       <c r="F2" s="10"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="82" t="s">
+      <c r="G2" s="40"/>
+      <c r="H2" s="79" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2439,8 +2436,8 @@
         <v>20</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="82"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="79"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
@@ -2459,8 +2456,8 @@
         <v>20</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="82"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="79"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -2469,8 +2466,8 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="82"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="79"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
@@ -2479,8 +2476,8 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="82"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="79"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
@@ -2489,8 +2486,8 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="82"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="79"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
@@ -2499,8 +2496,8 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="82"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="79"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
@@ -2509,8 +2506,8 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="82"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="79"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
@@ -2519,8 +2516,8 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="82"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="79"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
@@ -2529,8 +2526,8 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="82"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="79"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
@@ -2539,8 +2536,8 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="82"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="79"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
@@ -2549,8 +2546,8 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="82"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="79"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
@@ -2559,8 +2556,8 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="82"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="79"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
@@ -2569,8 +2566,8 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="82"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="79"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
@@ -2579,8 +2576,8 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="82"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="79"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
@@ -2589,8 +2586,8 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="82"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="79"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
@@ -2599,8 +2596,8 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="82"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="79"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
@@ -2609,8 +2606,8 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="82"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="79"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
@@ -2619,8 +2616,8 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="82"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="79"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
@@ -2629,8 +2626,8 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="82"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="79"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
@@ -2639,11 +2636,11 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="82"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="79"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H23" s="82"/>
+      <c r="H23" s="79"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
@@ -2652,8 +2649,8 @@
       <c r="D24" s="8"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="82"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="79"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
@@ -2662,8 +2659,8 @@
       <c r="D25" s="8"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="82"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="79"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
@@ -2672,8 +2669,8 @@
       <c r="D26" s="8"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="82"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2692,1039 +2689,1039 @@
   </sheetPr>
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" style="45" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="45" customWidth="1"/>
-    <col min="3" max="3" width="116.42578125" style="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="65.28515625" style="45" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="45"/>
+    <col min="1" max="1" width="27.5703125" style="42" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="42" customWidth="1"/>
+    <col min="3" max="3" width="116.42578125" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" style="42" customWidth="1"/>
+    <col min="5" max="5" width="65.28515625" style="42" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="80" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" s="44" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-    </row>
-    <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="47" t="s">
+      <c r="E2" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="D2" s="47" t="s">
+    </row>
+    <row r="3" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="B3" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="49" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="E3" s="50"/>
+    </row>
+    <row r="4" spans="1:5" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="B4" s="52" t="s">
         <v>269</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="C4" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="54"/>
+      <c r="E4" s="55"/>
+    </row>
+    <row r="5" spans="1:5" s="51" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="54"/>
+      <c r="E5" s="56"/>
+    </row>
+    <row r="6" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="54"/>
+      <c r="E6" s="57"/>
+    </row>
+    <row r="7" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="54"/>
+      <c r="E7" s="57"/>
+    </row>
+    <row r="8" spans="1:5" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>273</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" s="54"/>
+      <c r="E8" s="57"/>
+    </row>
+    <row r="9" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="58"/>
+      <c r="E9" s="50"/>
+    </row>
+    <row r="10" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="58"/>
+      <c r="E10" s="50"/>
+    </row>
+    <row r="11" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="58"/>
+      <c r="E11" s="50"/>
+    </row>
+    <row r="12" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>278</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="58"/>
+      <c r="E12" s="50"/>
+    </row>
+    <row r="13" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>279</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="58"/>
+      <c r="E13" s="50"/>
+    </row>
+    <row r="14" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>280</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="58"/>
+      <c r="E14" s="50"/>
+    </row>
+    <row r="15" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="58"/>
+      <c r="E15" s="50"/>
+    </row>
+    <row r="16" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="B16" s="53" t="s">
+        <v>282</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="58"/>
+      <c r="E16" s="50"/>
+    </row>
+    <row r="17" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="58"/>
+      <c r="E17" s="50"/>
+    </row>
+    <row r="18" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>284</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="58"/>
+      <c r="E18" s="50"/>
+    </row>
+    <row r="19" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="58"/>
+      <c r="E19" s="50"/>
+    </row>
+    <row r="20" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="B20" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="58"/>
+      <c r="E20" s="50"/>
+    </row>
+    <row r="21" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>287</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="58"/>
+      <c r="E21" s="50"/>
+    </row>
+    <row r="22" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="58"/>
+      <c r="E22" s="50"/>
+    </row>
+    <row r="23" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="B23" s="53" t="s">
+        <v>289</v>
+      </c>
+      <c r="C23" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="58"/>
+      <c r="E23" s="50"/>
+    </row>
+    <row r="24" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="C24" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="58"/>
+      <c r="E24" s="50"/>
+    </row>
+    <row r="25" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="B25" s="53" t="s">
+        <v>291</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="58"/>
+      <c r="E25" s="50"/>
+    </row>
+    <row r="26" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="B26" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="C26" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="58"/>
+      <c r="E26" s="50"/>
+    </row>
+    <row r="27" spans="1:5" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="B27" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="58"/>
+      <c r="E27" s="50"/>
+    </row>
+    <row r="28" spans="1:5" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="B28" s="53" t="s">
+        <v>294</v>
+      </c>
+      <c r="C28" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="58"/>
+      <c r="E28" s="50"/>
+    </row>
+    <row r="29" spans="1:5" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="B29" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="C29" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="58"/>
+      <c r="E29" s="50"/>
+    </row>
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="B30" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="58"/>
+      <c r="E30" s="50"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="59" t="s">
+        <v>267</v>
+      </c>
+      <c r="B31" s="60" t="s">
+        <v>297</v>
+      </c>
+      <c r="C31" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="62"/>
+      <c r="E31" s="63"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="B32" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="58"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="B33" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C33" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" s="65"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="B34" s="54" t="s">
+        <v>269</v>
+      </c>
+      <c r="C34" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="58"/>
+      <c r="E34" s="66"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="B35" s="54" t="s">
+        <v>270</v>
+      </c>
+      <c r="C35" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="B36" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="B37" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="B38" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="B39" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="B40" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="B41" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="B42" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="B43" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="B44" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="B45" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="58"/>
+      <c r="E45" s="53"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="B46" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="B47" s="53" t="s">
+        <v>299</v>
+      </c>
+      <c r="C47" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="B48" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="58"/>
+      <c r="E48" s="53"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="B49" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="58"/>
+      <c r="E49" s="53"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="B50" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="58"/>
+      <c r="E50" s="53"/>
+    </row>
+    <row r="51" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="B51" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="58"/>
+      <c r="E51" s="53"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="B52" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="58"/>
+      <c r="E52" s="53"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="B53" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" s="58"/>
+      <c r="E53" s="53"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="B54" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="58"/>
+      <c r="E54" s="65"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="B55" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="58"/>
+      <c r="E55" s="66"/>
+    </row>
+    <row r="56" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="68" t="s">
+        <v>298</v>
+      </c>
+      <c r="B56" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" s="68"/>
+      <c r="E56" s="68"/>
+    </row>
+    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="70" t="s">
+        <v>300</v>
+      </c>
+      <c r="B57" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D57" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="E57" s="73"/>
+    </row>
+    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="B58" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="E58" s="50"/>
+    </row>
+    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="B59" s="52" t="s">
+        <v>269</v>
+      </c>
+      <c r="C59" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" s="58"/>
+      <c r="E59" s="50"/>
+    </row>
+    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="B60" s="52" t="s">
         <v>270</v>
       </c>
-      <c r="E3" s="53"/>
-    </row>
-    <row r="4" spans="1:5" s="54" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="B4" s="55" t="s">
-        <v>271</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="58"/>
-    </row>
-    <row r="5" spans="1:5" s="54" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="B5" s="55" t="s">
-        <v>272</v>
-      </c>
-      <c r="C5" s="56" t="s">
+      <c r="C60" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="59"/>
-    </row>
-    <row r="6" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="B6" s="56" t="s">
-        <v>273</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="60"/>
-    </row>
-    <row r="7" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="B7" s="56" t="s">
-        <v>274</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="60"/>
-    </row>
-    <row r="8" spans="1:5" s="54" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="B8" s="56" t="s">
-        <v>275</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>276</v>
-      </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="60"/>
-    </row>
-    <row r="9" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="B9" s="56" t="s">
-        <v>277</v>
-      </c>
-      <c r="C9" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="53"/>
-    </row>
-    <row r="10" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="B10" s="56" t="s">
-        <v>278</v>
-      </c>
-      <c r="C10" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="61"/>
-      <c r="E10" s="53"/>
-    </row>
-    <row r="11" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="B11" s="56" t="s">
-        <v>279</v>
-      </c>
-      <c r="C11" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="53"/>
-    </row>
-    <row r="12" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="B12" s="56" t="s">
-        <v>280</v>
-      </c>
-      <c r="C12" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="53"/>
-    </row>
-    <row r="13" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="B13" s="56" t="s">
-        <v>281</v>
-      </c>
-      <c r="C13" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="53"/>
-    </row>
-    <row r="14" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="B14" s="56" t="s">
-        <v>282</v>
-      </c>
-      <c r="C14" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="53"/>
-    </row>
-    <row r="15" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="B15" s="56" t="s">
-        <v>283</v>
-      </c>
-      <c r="C15" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="53"/>
-    </row>
-    <row r="16" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="B16" s="56" t="s">
-        <v>284</v>
-      </c>
-      <c r="C16" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="53"/>
-    </row>
-    <row r="17" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="B17" s="56" t="s">
-        <v>285</v>
-      </c>
-      <c r="C17" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="53"/>
-    </row>
-    <row r="18" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="B18" s="56" t="s">
-        <v>286</v>
-      </c>
-      <c r="C18" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="53"/>
-    </row>
-    <row r="19" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="B19" s="56" t="s">
-        <v>287</v>
-      </c>
-      <c r="C19" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="53"/>
-    </row>
-    <row r="20" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="B20" s="56" t="s">
-        <v>288</v>
-      </c>
-      <c r="C20" s="56" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="53"/>
-    </row>
-    <row r="21" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="B21" s="56" t="s">
-        <v>289</v>
-      </c>
-      <c r="C21" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="53"/>
-    </row>
-    <row r="22" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="B22" s="56" t="s">
-        <v>290</v>
-      </c>
-      <c r="C22" s="56" t="s">
+      <c r="D60" s="58"/>
+      <c r="E60" s="50"/>
+    </row>
+    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="B61" s="52" t="s">
+        <v>301</v>
+      </c>
+      <c r="C61" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61" s="58"/>
+      <c r="E61" s="50"/>
+    </row>
+    <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="B62" s="52" t="s">
+        <v>302</v>
+      </c>
+      <c r="C62" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D62" s="58"/>
+      <c r="E62" s="50"/>
+    </row>
+    <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="B63" s="52" t="s">
+        <v>303</v>
+      </c>
+      <c r="C63" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D63" s="58"/>
+      <c r="E63" s="50"/>
+    </row>
+    <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="B64" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="D64" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="E64" s="50"/>
+    </row>
+    <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="B65" s="52" t="s">
+        <v>304</v>
+      </c>
+      <c r="C65" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D65" s="58"/>
+      <c r="E65" s="50"/>
+    </row>
+    <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="B66" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D66" s="58"/>
+      <c r="E66" s="50"/>
+    </row>
+    <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="B67" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="D67" s="58"/>
+      <c r="E67" s="50"/>
+    </row>
+    <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="B68" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D68" s="58"/>
+      <c r="E68" s="50"/>
+    </row>
+    <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="B69" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D69" s="58"/>
+      <c r="E69" s="50"/>
+    </row>
+    <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A70" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="B70" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D70" s="58"/>
+      <c r="E70" s="50"/>
+    </row>
+    <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="B71" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="D71" s="58"/>
+      <c r="E71" s="50"/>
+    </row>
+    <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A72" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="B72" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C72" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="D72" s="58"/>
+      <c r="E72" s="50"/>
+    </row>
+    <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A73" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="B73" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="D73" s="58"/>
+      <c r="E73" s="74"/>
+    </row>
+    <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A74" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="B74" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="C74" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="D74" s="53"/>
+      <c r="E74" s="74"/>
+    </row>
+    <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A75" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="B75" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="C75" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="61"/>
-      <c r="E22" s="53"/>
-    </row>
-    <row r="23" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="B23" s="56" t="s">
-        <v>291</v>
-      </c>
-      <c r="C23" s="56" t="s">
+      <c r="D75" s="53"/>
+      <c r="E75" s="74"/>
+    </row>
+    <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A76" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="B76" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="53"/>
-    </row>
-    <row r="24" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="B24" s="56" t="s">
-        <v>292</v>
-      </c>
-      <c r="C24" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="61"/>
-      <c r="E24" s="53"/>
-    </row>
-    <row r="25" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="B25" s="56" t="s">
-        <v>293</v>
-      </c>
-      <c r="C25" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="53"/>
-    </row>
-    <row r="26" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="B26" s="56" t="s">
-        <v>294</v>
-      </c>
-      <c r="C26" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="53"/>
-    </row>
-    <row r="27" spans="1:5" s="54" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="B27" s="56" t="s">
-        <v>295</v>
-      </c>
-      <c r="C27" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="53"/>
-    </row>
-    <row r="28" spans="1:5" s="54" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="B28" s="56" t="s">
-        <v>296</v>
-      </c>
-      <c r="C28" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="53"/>
-    </row>
-    <row r="29" spans="1:5" s="54" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="B29" s="56" t="s">
-        <v>297</v>
-      </c>
-      <c r="C29" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="53"/>
-    </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="B30" s="56" t="s">
-        <v>298</v>
-      </c>
-      <c r="C30" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="61"/>
-      <c r="E30" s="53"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="62" t="s">
-        <v>269</v>
-      </c>
-      <c r="B31" s="63" t="s">
-        <v>299</v>
-      </c>
-      <c r="C31" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="65"/>
-      <c r="E31" s="66"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="61" t="s">
+      <c r="D76" s="58"/>
+      <c r="E76" s="74"/>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="59" t="s">
         <v>300</v>
       </c>
-      <c r="B32" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="E32" s="61"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="61" t="s">
-        <v>300</v>
-      </c>
-      <c r="B33" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="E33" s="68"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="61" t="s">
-        <v>300</v>
-      </c>
-      <c r="B34" s="57" t="s">
-        <v>271</v>
-      </c>
-      <c r="C34" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="61"/>
-      <c r="E34" s="69"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="61" t="s">
-        <v>300</v>
-      </c>
-      <c r="B35" s="57" t="s">
-        <v>272</v>
-      </c>
-      <c r="C35" s="61" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="61" t="s">
-        <v>300</v>
-      </c>
-      <c r="B36" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="61" t="s">
-        <v>300</v>
-      </c>
-      <c r="B37" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="61" t="s">
-        <v>300</v>
-      </c>
-      <c r="B38" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="61" t="s">
-        <v>300</v>
-      </c>
-      <c r="B39" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="61" t="s">
-        <v>300</v>
-      </c>
-      <c r="B40" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="61" t="s">
-        <v>300</v>
-      </c>
-      <c r="B41" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="61" t="s">
-        <v>300</v>
-      </c>
-      <c r="B42" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="61" t="s">
-        <v>300</v>
-      </c>
-      <c r="B43" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="61" t="s">
-        <v>300</v>
-      </c>
-      <c r="B44" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44" s="61"/>
-      <c r="E44" s="61"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="61" t="s">
-        <v>300</v>
-      </c>
-      <c r="B45" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" s="61"/>
-      <c r="E45" s="56"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="61" t="s">
-        <v>300</v>
-      </c>
-      <c r="B46" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="61" t="s">
-        <v>300</v>
-      </c>
-      <c r="B47" s="56" t="s">
-        <v>301</v>
-      </c>
-      <c r="C47" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="61" t="s">
-        <v>300</v>
-      </c>
-      <c r="B48" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" s="61"/>
-      <c r="E48" s="56"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="61" t="s">
-        <v>300</v>
-      </c>
-      <c r="B49" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="D49" s="61"/>
-      <c r="E49" s="56"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="61" t="s">
-        <v>300</v>
-      </c>
-      <c r="B50" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="D50" s="61"/>
-      <c r="E50" s="56"/>
-    </row>
-    <row r="51" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="61" t="s">
-        <v>300</v>
-      </c>
-      <c r="B51" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="D51" s="61"/>
-      <c r="E51" s="56"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="61" t="s">
-        <v>300</v>
-      </c>
-      <c r="B52" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="C52" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="D52" s="61"/>
-      <c r="E52" s="56"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="61" t="s">
-        <v>300</v>
-      </c>
-      <c r="B53" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="C53" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="D53" s="61"/>
-      <c r="E53" s="56"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="61" t="s">
-        <v>300</v>
-      </c>
-      <c r="B54" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="C54" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="D54" s="61"/>
-      <c r="E54" s="68"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="61" t="s">
-        <v>300</v>
-      </c>
-      <c r="B55" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="D55" s="61"/>
-      <c r="E55" s="69"/>
-    </row>
-    <row r="56" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="71" t="s">
-        <v>300</v>
-      </c>
-      <c r="B56" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="D56" s="71"/>
-      <c r="E56" s="71"/>
-    </row>
-    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="73" t="s">
-        <v>302</v>
-      </c>
-      <c r="B57" s="74" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="D57" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="E57" s="76"/>
-    </row>
-    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="49" t="s">
-        <v>302</v>
-      </c>
-      <c r="B58" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="D58" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="E58" s="53"/>
-    </row>
-    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="49" t="s">
-        <v>302</v>
-      </c>
-      <c r="B59" s="55" t="s">
-        <v>271</v>
-      </c>
-      <c r="C59" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="D59" s="61"/>
-      <c r="E59" s="53"/>
-    </row>
-    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="49" t="s">
-        <v>302</v>
-      </c>
-      <c r="B60" s="55" t="s">
-        <v>272</v>
-      </c>
-      <c r="C60" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="D60" s="61"/>
-      <c r="E60" s="53"/>
-    </row>
-    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="49" t="s">
-        <v>302</v>
-      </c>
-      <c r="B61" s="55" t="s">
-        <v>303</v>
-      </c>
-      <c r="C61" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="D61" s="61"/>
-      <c r="E61" s="53"/>
-    </row>
-    <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="49" t="s">
-        <v>302</v>
-      </c>
-      <c r="B62" s="55" t="s">
-        <v>304</v>
-      </c>
-      <c r="C62" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="D62" s="61"/>
-      <c r="E62" s="53"/>
-    </row>
-    <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="49" t="s">
-        <v>302</v>
-      </c>
-      <c r="B63" s="55" t="s">
-        <v>305</v>
-      </c>
-      <c r="C63" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="D63" s="61"/>
-      <c r="E63" s="53"/>
-    </row>
-    <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="49" t="s">
-        <v>302</v>
-      </c>
-      <c r="B64" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="C64" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="D64" s="61" t="s">
-        <v>114</v>
-      </c>
-      <c r="E64" s="53"/>
-    </row>
-    <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="49" t="s">
-        <v>302</v>
-      </c>
-      <c r="B65" s="55" t="s">
-        <v>306</v>
-      </c>
-      <c r="C65" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="D65" s="61"/>
-      <c r="E65" s="53"/>
-    </row>
-    <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="49" t="s">
-        <v>302</v>
-      </c>
-      <c r="B66" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="C66" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="D66" s="61"/>
-      <c r="E66" s="53"/>
-    </row>
-    <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="49" t="s">
-        <v>302</v>
-      </c>
-      <c r="B67" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="C67" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="D67" s="61"/>
-      <c r="E67" s="53"/>
-    </row>
-    <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68" s="49" t="s">
-        <v>302</v>
-      </c>
-      <c r="B68" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="C68" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="D68" s="61"/>
-      <c r="E68" s="53"/>
-    </row>
-    <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="49" t="s">
-        <v>302</v>
-      </c>
-      <c r="B69" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="C69" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="D69" s="61"/>
-      <c r="E69" s="53"/>
-    </row>
-    <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A70" s="49" t="s">
-        <v>302</v>
-      </c>
-      <c r="B70" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="C70" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="D70" s="61"/>
-      <c r="E70" s="53"/>
-    </row>
-    <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="49" t="s">
-        <v>302</v>
-      </c>
-      <c r="B71" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="C71" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="D71" s="61"/>
-      <c r="E71" s="53"/>
-    </row>
-    <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A72" s="49" t="s">
-        <v>302</v>
-      </c>
-      <c r="B72" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="C72" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="D72" s="61"/>
-      <c r="E72" s="53"/>
-    </row>
-    <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A73" s="49" t="s">
-        <v>302</v>
-      </c>
-      <c r="B73" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="C73" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="D73" s="61"/>
-      <c r="E73" s="77"/>
-    </row>
-    <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A74" s="49" t="s">
-        <v>302</v>
-      </c>
-      <c r="B74" s="55" t="s">
+      <c r="B77" s="61" t="s">
         <v>307</v>
       </c>
-      <c r="C74" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="D74" s="56"/>
-      <c r="E74" s="77"/>
-    </row>
-    <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A75" s="49" t="s">
-        <v>302</v>
-      </c>
-      <c r="B75" s="55" t="s">
-        <v>308</v>
-      </c>
-      <c r="C75" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="D75" s="56"/>
-      <c r="E75" s="77"/>
-    </row>
-    <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A76" s="49" t="s">
-        <v>302</v>
-      </c>
-      <c r="B76" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="C76" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="D76" s="61"/>
-      <c r="E76" s="77"/>
-    </row>
-    <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="62" t="s">
-        <v>302</v>
-      </c>
-      <c r="B77" s="64" t="s">
-        <v>309</v>
-      </c>
-      <c r="C77" s="64" t="s">
+      <c r="C77" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="D77" s="65"/>
-      <c r="E77" s="78"/>
+      <c r="D77" s="62"/>
+      <c r="E77" s="75"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="79"/>
-      <c r="B78" s="80"/>
-      <c r="C78" s="81"/>
-      <c r="D78" s="81"/>
-      <c r="E78" s="80"/>
+      <c r="A78" s="76"/>
+      <c r="B78" s="77"/>
+      <c r="C78" s="78"/>
+      <c r="D78" s="78"/>
+      <c r="E78" s="77"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:E77" xr:uid="{674CDF6A-021B-4557-943A-29D19E4E6891}"/>
@@ -3741,13 +3738,13 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3785,7 +3782,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="str">
-        <f t="shared" ref="A2:A33" si="0">CONCATENATE(B2, "     ", C2, "     ", D2)</f>
+        <f t="shared" ref="A2:A35" si="0">CONCATENATE(B2, "     ", C2, "     ", D2)</f>
         <v>stg_nyc_mv_collisions_BigQuery     COLLISION_ID     bigint</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3797,9 +3794,15 @@
       <c r="D2" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="str">
@@ -3815,8 +3818,12 @@
       <c r="D3" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3833,8 +3840,12 @@
       <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3851,8 +3862,12 @@
       <c r="D5" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3869,8 +3884,12 @@
       <c r="D6" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3887,8 +3906,12 @@
       <c r="D7" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3899,14 +3922,18 @@
       <c r="B8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="4" t="s">
         <v>141</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3923,8 +3950,12 @@
       <c r="D9" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3941,8 +3972,12 @@
       <c r="D10" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3959,8 +3994,12 @@
       <c r="D11" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3977,8 +4016,12 @@
       <c r="D12" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3995,8 +4038,12 @@
       <c r="D13" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -4013,8 +4060,12 @@
       <c r="D14" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -4031,8 +4082,12 @@
       <c r="D15" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -4049,8 +4104,12 @@
       <c r="D16" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -4067,8 +4126,12 @@
       <c r="D17" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -4085,8 +4148,12 @@
       <c r="D18" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -4103,8 +4170,12 @@
       <c r="D19" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -4121,8 +4192,12 @@
       <c r="D20" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -4139,8 +4214,12 @@
       <c r="D21" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -4157,8 +4236,12 @@
       <c r="D22" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -4175,8 +4258,12 @@
       <c r="D23" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="E23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -4193,8 +4280,12 @@
       <c r="D24" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -4211,8 +4302,12 @@
       <c r="D25" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -4229,8 +4324,12 @@
       <c r="D26" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -4247,8 +4346,12 @@
       <c r="D27" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -4265,8 +4368,12 @@
       <c r="D28" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -4277,14 +4384,18 @@
       <c r="B29" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="4" t="s">
         <v>161</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="E29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -4295,14 +4406,18 @@
       <c r="B30" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="4" t="s">
         <v>162</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -4313,14 +4428,18 @@
       <c r="B31" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="4" t="s">
         <v>163</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="E31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -4331,14 +4450,18 @@
       <c r="B32" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="4" t="s">
         <v>164</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="E32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -4349,1041 +4472,1192 @@
       <c r="B33" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="4" t="s">
         <v>165</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="A34" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>stg_nyc_mv_collisions_BigQuery     DI_PID     varchar(20)</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
-        <f>CONCATENATE(B35, "     ", C35, "     ", D35)</f>
-        <v>stg_nyc_mv_collision_vehicles     UNIQUE_ID     bigint</v>
+        <f t="shared" si="0"/>
+        <v>stg_nyc_mv_collisions_BigQuery     DI_Create_Date     datetime</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>27</v>
+        <v>312</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
+        <v>171</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>308</v>
+      </c>
       <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="str">
-        <f t="shared" ref="A36:A81" si="1">CONCATENATE(B36, "     ", C36, "     ", D36)</f>
-        <v>stg_nyc_mv_collision_vehicles     COLLISION_ID     bigint</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_vehicles     CRASH_DATE     datetime</v>
+        <f>CONCATENATE(B37, "     ", C37, "     ", D37)</f>
+        <v>stg_nyc_mv_collision_vehicles     UNIQUE_ID     bigint</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+        <v>166</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_vehicles     CRASH_TIME     time</v>
+        <f t="shared" ref="A38:A85" si="1">CONCATENATE(B38, "     ", C38, "     ", D38)</f>
+        <v>stg_nyc_mv_collision_vehicles     COLLISION_ID     bigint</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+        <v>166</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>308</v>
+      </c>
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_vehicles     VEHICLE_ID     varchar(80)</v>
+        <v>stg_nyc_mv_collision_vehicles     CRASH_DATE     datetime</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
+        <v>171</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_vehicles     STATE_REGISTRATION     varchar(80)</v>
+        <v>stg_nyc_mv_collision_vehicles     CRASH_TIME     time</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
+        <v>172</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_vehicles     VEHICLE_TYPE     varchar(80)</v>
+        <v>stg_nyc_mv_collision_vehicles     VEHICLE_ID     varchar(80)</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="43" t="s">
-        <v>37</v>
+      <c r="C41" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
+      <c r="E41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_vehicles     VEHICLE_MAKE     varchar(80)</v>
+        <v>stg_nyc_mv_collision_vehicles     STATE_REGISTRATION     varchar(80)</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
+      <c r="E42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_vehicles     VEHICLE_MODEL     varchar(80)</v>
+        <v>stg_nyc_mv_collision_vehicles     VEHICLE_TYPE     varchar(80)</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="43" t="s">
-        <v>41</v>
+      <c r="C43" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
+      <c r="E43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_vehicles     VEHICLE_YEAR     varchar(80)</v>
+        <v>stg_nyc_mv_collision_vehicles     VEHICLE_MAKE     varchar(80)</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
+      <c r="E44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_vehicles     TRAVEL_DIRECTION     varchar(255)</v>
+        <v>stg_nyc_mv_collision_vehicles     VEHICLE_MODEL     varchar(80)</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
+        <v>177</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_vehicles     VEHICLE_OCCUPANTS     int</v>
+        <v>stg_nyc_mv_collision_vehicles     VEHICLE_YEAR     varchar(80)</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
+        <v>177</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_vehicles     DRIVER_SEX     varchar(80)</v>
+        <v>stg_nyc_mv_collision_vehicles     TRAVEL_DIRECTION     varchar(255)</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
+        <v>189</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_vehicles     DRIVER_LICENSE_STATUS     varchar(255)</v>
+        <v>stg_nyc_mv_collision_vehicles     VEHICLE_OCCUPANTS     int</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="43" t="s">
-        <v>51</v>
+      <c r="C48" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
+        <v>173</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G48" s="4"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_vehicles     DRIVER_LICENSE_JURISDICTION     varchar(255)</v>
+        <v>stg_nyc_mv_collision_vehicles     DRIVER_SEX     varchar(80)</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="43" t="s">
-        <v>53</v>
+      <c r="C49" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
+        <v>177</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_vehicles     PRE_CRASH     varchar(255)</v>
+        <v>stg_nyc_mv_collision_vehicles     DRIVER_LICENSE_STATUS     varchar(255)</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
+      <c r="E50" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_vehicles     POINT_OF_IMPACT     varchar(255)</v>
+        <v>stg_nyc_mv_collision_vehicles     DRIVER_LICENSE_JURISDICTION     varchar(255)</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
+      <c r="E51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G51" s="4"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_vehicles     VEHICLE_DAMAGE     varchar(255)</v>
+        <v>stg_nyc_mv_collision_vehicles     PRE_CRASH     varchar(255)</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="44" t="s">
-        <v>58</v>
+      <c r="C52" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
+      <c r="E52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_vehicles     VEHICLE_DAMAGE_1     varchar(255)</v>
+        <v>stg_nyc_mv_collision_vehicles     POINT_OF_IMPACT     varchar(255)</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C53" s="44" t="s">
-        <v>60</v>
+      <c r="C53" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
+      <c r="E53" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_vehicles     VEHICLE_DAMAGE_2     varchar(255)</v>
+        <v>stg_nyc_mv_collision_vehicles     VEHICLE_DAMAGE     varchar(255)</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="44" t="s">
-        <v>62</v>
+      <c r="C54" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
+      <c r="E54" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G54" s="4"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_vehicles     VEHICLE_DAMAGE_3     varchar(255)</v>
+        <v>stg_nyc_mv_collision_vehicles     VEHICLE_DAMAGE_1     varchar(255)</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="44" t="s">
-        <v>63</v>
+      <c r="C55" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
+      <c r="E55" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G55" s="4"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_vehicles     PUBLIC_PROPERTY_DAMAGE     varchar(1024)</v>
+        <v>stg_nyc_mv_collision_vehicles     VEHICLE_DAMAGE_2     varchar(255)</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
+        <v>189</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G56" s="4"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_vehicles     PUBLIC_PROPERTY_DAMAGE_TYPE     varchar(1024)</v>
+        <v>stg_nyc_mv_collision_vehicles     VEHICLE_DAMAGE_3     varchar(255)</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
+        <v>189</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G57" s="4"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_vehicles     CONTRIBUTING_FACTOR_1     varchar(255)</v>
+        <v>stg_nyc_mv_collision_vehicles     PUBLIC_PROPERTY_DAMAGE     varchar(1024)</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="43" t="s">
-        <v>68</v>
+      <c r="C58" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
+        <v>201</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G58" s="4"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_vehicles     CONTRIBUTING_FACTOR_2     varchar(255)</v>
+        <v>stg_nyc_mv_collision_vehicles     PUBLIC_PROPERTY_DAMAGE_TYPE     varchar(1024)</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="43" t="s">
-        <v>70</v>
+      <c r="C59" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
+        <v>201</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G59" s="4"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">          </v>
-      </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
+        <v>stg_nyc_mv_collision_vehicles     CONTRIBUTING_FACTOR_1     varchar(255)</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G60" s="4"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_persons     UNIQUE_ID     bigint</v>
+        <v>stg_nyc_mv_collision_vehicles     CONTRIBUTING_FACTOR_2     varchar(255)</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
+        <v>189</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G61" s="4"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_persons     COLLISION_ID     bigint</v>
+        <v>stg_nyc_mv_collision_vehicles     DI_PID     varchar(20)</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>29</v>
+        <v>310</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
+        <v>311</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G62" s="4"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_persons     CRASH_DATE     datetime</v>
+        <v>stg_nyc_mv_collision_vehicles     DI_Create_Date     datetime</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>127</v>
+        <v>312</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
+      <c r="E63" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>308</v>
+      </c>
       <c r="G63" s="4"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_persons     CRASH_TIME     time</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_persons     PERSON_ID     varchar(80)</v>
+        <v>stg_nyc_mv_collision_persons     UNIQUE_ID     bigint</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
+        <v>166</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_persons     PERSON_TYPE     varchar(80)</v>
+        <v>stg_nyc_mv_collision_persons     COLLISION_ID     bigint</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
+        <v>166</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>308</v>
+      </c>
       <c r="G66" s="4"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_persons     PERSON_INJURY     varchar(80)</v>
+        <v>stg_nyc_mv_collision_persons     CRASH_DATE     datetime</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
+        <v>171</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G67" s="4"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_persons     VEHICLE_ID     varchar(80)</v>
+        <v>stg_nyc_mv_collision_persons     CRASH_TIME     time</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
+        <v>172</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G68" s="4"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_persons     PERSON_AGE     int</v>
+        <v>stg_nyc_mv_collision_persons     PERSON_ID     varchar(80)</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
+        <v>177</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G69" s="4"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_persons     EJECTION     varchar(80)</v>
+        <v>stg_nyc_mv_collision_persons     PERSON_TYPE     varchar(80)</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C70" s="43" t="s">
-        <v>76</v>
+      <c r="C70" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
+      <c r="E70" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G70" s="4"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_persons     EMOTIONAL_STATUS     varchar(80)</v>
+        <v>stg_nyc_mv_collision_persons     PERSON_INJURY     varchar(80)</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
+      <c r="E71" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G71" s="4"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_persons     BODILY_INJURY     varchar(80)</v>
+        <v>stg_nyc_mv_collision_persons     VEHICLE_ID     varchar(80)</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C72" s="43" t="s">
-        <v>80</v>
+      <c r="C72" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
+      <c r="E72" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G72" s="4"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_persons     POSITION_IN_VEHICLE     varchar(255)</v>
+        <v>stg_nyc_mv_collision_persons     PERSON_AGE     int</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
+        <v>173</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G73" s="4"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_persons     SAFETY_EQUIPMENT     varchar(255)</v>
+        <v>stg_nyc_mv_collision_persons     EJECTION     varchar(80)</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
+        <v>177</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G74" s="4"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_persons     PED_LOCATION     varchar(255)</v>
+        <v>stg_nyc_mv_collision_persons     EMOTIONAL_STATUS     varchar(80)</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
+        <v>177</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G75" s="4"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_persons     PED_ACTION     varchar(255)</v>
+        <v>stg_nyc_mv_collision_persons     BODILY_INJURY     varchar(80)</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
+        <v>177</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G76" s="4"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_persons     COMPLAINT     varchar(255)</v>
+        <v>stg_nyc_mv_collision_persons     POSITION_IN_VEHICLE     varchar(255)</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C77" s="43" t="s">
-        <v>90</v>
+      <c r="C77" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
+      <c r="E77" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G77" s="4"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_persons     PED_ROLE     varchar(255)</v>
+        <v>stg_nyc_mv_collision_persons     SAFETY_EQUIPMENT     varchar(255)</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
+      <c r="E78" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G78" s="4"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_persons     CONTRIBUTING_FACTOR_1     varchar(255)</v>
+        <v>stg_nyc_mv_collision_persons     PED_LOCATION     varchar(255)</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C79" s="43" t="s">
-        <v>68</v>
+      <c r="C79" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
+      <c r="E79" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G79" s="4"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_persons     CONTRIBUTING_FACTOR_2     varchar(255)</v>
+        <v>stg_nyc_mv_collision_persons     PED_ACTION     varchar(255)</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C80" s="43" t="s">
-        <v>70</v>
+      <c r="C80" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
+      <c r="E80" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="G80" s="4"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>stg_nyc_mv_collision_persons     PERSON_SEX     varchar(10)</v>
+        <v>stg_nyc_mv_collision_persons     COMPLAINT     varchar(255)</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C81" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G81" s="4"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>stg_nyc_mv_collision_persons     PED_ROLE     varchar(255)</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G82" s="4"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>stg_nyc_mv_collision_persons     CONTRIBUTING_FACTOR_1     varchar(255)</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G83" s="4"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>stg_nyc_mv_collision_persons     CONTRIBUTING_FACTOR_2     varchar(255)</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G84" s="4"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>stg_nyc_mv_collision_persons     PERSON_SEX     varchar(10)</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D85" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
+      <c r="E85" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G85" s="4"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="str">
+        <f t="shared" ref="A86:A87" si="2">CONCATENATE(B86, "     ", C86, "     ", D86)</f>
+        <v>stg_nyc_mv_collision_persons     DI_PID     varchar(20)</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G86" s="4"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>stg_nyc_mv_collision_persons     DI_Create_Date     datetime</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G87" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F70" xr:uid="{3BDBAC1D-450D-42D5-9B93-2C09F76F9684}"/>
+  <autoFilter ref="A1:F74" xr:uid="{3BDBAC1D-450D-42D5-9B93-2C09F76F9684}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465D6E9B-3966-4872-912D-9C5B66373B97}">
-  <sheetPr>
-    <tabColor theme="2" tint="-9.9978637043366805E-2"/>
-  </sheetPr>
-  <dimension ref="A1:A18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>240</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2F8289-0DF4-4CC4-9510-71A5B133B62F}">
-  <sheetPr>
-    <tabColor rgb="FFEAB1F9"/>
-  </sheetPr>
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>256</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108C8B86-8BCC-474B-9ADD-D032827BBA53}">
   <sheetPr>
     <tabColor rgb="FF7FE1DC"/>
   </sheetPr>
   <dimension ref="A1:R80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomRight" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" style="27" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" style="27" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" style="27" customWidth="1"/>
     <col min="4" max="4" width="39.140625" style="27" customWidth="1"/>
@@ -5433,7 +5707,7 @@
         <v>14</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M1" s="23"/>
       <c r="N1" s="7"/>
@@ -5614,7 +5888,7 @@
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="90" t="s">
+      <c r="H8" s="87" t="s">
         <v>260</v>
       </c>
       <c r="I8" s="22"/>
@@ -5642,7 +5916,7 @@
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="91"/>
+      <c r="H9" s="88"/>
       <c r="I9" s="22"/>
       <c r="J9" s="8" t="s">
         <v>95</v>
@@ -5668,7 +5942,7 @@
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="91"/>
+      <c r="H10" s="88"/>
       <c r="I10" s="22"/>
       <c r="J10" s="8" t="s">
         <v>100</v>
@@ -5694,7 +5968,7 @@
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="91"/>
+      <c r="H11" s="88"/>
       <c r="I11" s="22"/>
       <c r="J11" s="8" t="s">
         <v>98</v>
@@ -5720,7 +5994,7 @@
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="91"/>
+      <c r="H12" s="88"/>
       <c r="I12" s="22"/>
       <c r="J12" s="8" t="s">
         <v>99</v>
@@ -5746,7 +6020,7 @@
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="91"/>
+      <c r="H13" s="88"/>
       <c r="I13" s="22"/>
       <c r="J13" s="8" t="s">
         <v>109</v>
@@ -5772,7 +6046,7 @@
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="92"/>
+      <c r="H14" s="89"/>
       <c r="I14" s="22"/>
       <c r="J14" s="8" t="s">
         <v>96</v>
@@ -5826,10 +6100,10 @@
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
-      <c r="H16" s="90" t="s">
+      <c r="H16" s="87" t="s">
         <v>259</v>
       </c>
-      <c r="I16" s="87" t="s">
+      <c r="I16" s="84" t="s">
         <v>228</v>
       </c>
       <c r="J16" s="8" t="s">
@@ -5856,8 +6130,8 @@
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="89"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="86"/>
       <c r="J17" s="8" t="s">
         <v>69</v>
       </c>
@@ -5882,8 +6156,8 @@
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="89"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="86"/>
       <c r="J18" s="8" t="s">
         <v>69</v>
       </c>
@@ -5908,8 +6182,8 @@
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="89"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="86"/>
       <c r="J19" s="8" t="s">
         <v>69</v>
       </c>
@@ -5934,8 +6208,8 @@
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="88"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="85"/>
       <c r="J20" s="8" t="s">
         <v>69</v>
       </c>
@@ -6765,7 +7039,7 @@
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
       <c r="H51" s="8"/>
-      <c r="I51" s="84"/>
+      <c r="I51" s="81"/>
       <c r="J51" s="8" t="s">
         <v>59</v>
       </c>
@@ -6791,7 +7065,7 @@
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
       <c r="H52" s="8"/>
-      <c r="I52" s="85"/>
+      <c r="I52" s="82"/>
       <c r="J52" s="8" t="s">
         <v>61</v>
       </c>
@@ -6817,7 +7091,7 @@
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
       <c r="H53" s="8"/>
-      <c r="I53" s="85"/>
+      <c r="I53" s="82"/>
       <c r="J53" s="8" t="s">
         <v>61</v>
       </c>
@@ -6843,7 +7117,7 @@
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
       <c r="H54" s="8"/>
-      <c r="I54" s="86"/>
+      <c r="I54" s="83"/>
       <c r="J54" s="8" t="s">
         <v>61</v>
       </c>
@@ -6927,7 +7201,7 @@
       <c r="H57" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="I57" s="87" t="s">
+      <c r="I57" s="84" t="s">
         <v>228</v>
       </c>
       <c r="J57" s="8" t="s">
@@ -6957,7 +7231,7 @@
       <c r="H58" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="I58" s="88"/>
+      <c r="I58" s="85"/>
       <c r="J58" s="8" t="s">
         <v>69</v>
       </c>
@@ -6978,7 +7252,7 @@
         <v>256</v>
       </c>
       <c r="E59" s="37" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F59" s="38"/>
       <c r="G59" s="37" t="s">
@@ -7600,7 +7874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68111F00-6BD2-45AA-A271-90295F40B1B7}">
   <dimension ref="B1:S32"/>
   <sheetViews>
@@ -8410,7 +8684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99B8131-4DD5-4EE1-BA43-BA5B414FF0A1}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8424,7 +8698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786FF0AC-6D20-4EA0-941E-9D9868266EFA}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
